--- a/group-reports/tables/sharif-results-after-queue-test-2.xlsx
+++ b/group-reports/tables/sharif-results-after-queue-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>1051 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>197.81</t>
+          <t>197.81 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>1043 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>198.52</t>
+          <t>198.52 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>831 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>193.15</t>
+          <t>193.15 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>13 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>612 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>195.02</t>
+          <t>195.02 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>825 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>197.93</t>
+          <t>197.93 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>1279 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>211.31</t>
+          <t>211.31 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>754 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>187.74</t>
+          <t>187.74 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>915 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>212.08</t>
+          <t>212.08 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>751 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>194.14</t>
+          <t>194.14 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>950 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>232.14</t>
+          <t>232.14 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>19 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>11383</t>
+          <t>11383 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>4876.92</t>
+          <t>4876.92 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>929 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>193.65</t>
+          <t>193.65 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
